--- a/Review data/Review data(alain).xlsx
+++ b/Review data/Review data(alain).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Scoping review\Review data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\R-code and more\Scoping-Review\Review data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6379293D-FB05-43C6-B388-804862033E61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7194FE86-4FBE-4CB4-8C9A-88E78A1A4027}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-216" yWindow="1584" windowWidth="17280" windowHeight="9420" firstSheet="1" activeTab="2" xr2:uid="{5BE19F3A-1C95-495C-B822-F362EDE6D622}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="3" xr2:uid="{5BE19F3A-1C95-495C-B822-F362EDE6D622}"/>
   </bookViews>
   <sheets>
     <sheet name="PRISMA checklist" sheetId="1" r:id="rId1"/>
@@ -7000,8 +7000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BFFFE5-3A8A-4A01-8651-401016F9395A}">
   <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD36"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8849,8 +8849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{425E879B-9BAB-437F-96D2-FD669CBB9418}">
   <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8903,7 +8903,7 @@
       </c>
       <c r="O1" s="10"/>
     </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>'PRISMA checklist'!A2</f>
         <v>6. Breugom et al., 2015</v>
@@ -8945,7 +8945,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>'PRISMA checklist'!A3</f>
         <v>12. Egerup et al., 2015</v>
@@ -8987,7 +8987,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="str">
         <f>'PRISMA checklist'!A4</f>
         <v>19. Katz et al., 2015</v>
@@ -9017,7 +9017,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>'PRISMA checklist'!A5</f>
         <v>24. Nseir et al., 2015</v>
@@ -9059,7 +9059,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>'PRISMA checklist'!A6</f>
         <v>30. Sahgal et al., 2015</v>
@@ -9101,7 +9101,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="str">
         <f>'PRISMA checklist'!A7</f>
         <v>36. Sweeting et al., 2015</v>
@@ -9143,7 +9143,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>'PRISMA checklist'!A8</f>
         <v>42. Brown et al., 2016</v>
@@ -9188,7 +9188,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>'PRISMA checklist'!A9</f>
         <v>48. Doblinger et al., 2016</v>
@@ -9230,7 +9230,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>'PRISMA checklist'!A10</f>
         <v>54. Goyal et al., 2016</v>
@@ -9270,7 +9270,7 @@
       </c>
       <c r="O10" s="10"/>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>218</v>
       </c>
@@ -9311,7 +9311,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="str">
         <f>'PRISMA checklist'!A12</f>
         <v>66. Kotecha et al., 2016</v>
@@ -9353,7 +9353,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>'PRISMA checklist'!A13</f>
         <v>72. Lu et al., 2016</v>
@@ -9395,7 +9395,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f>'PRISMA checklist'!A14</f>
         <v>78. Rizzoni et al., 2016</v>
@@ -9437,7 +9437,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>'PRISMA checklist'!A15</f>
         <v>84. Shin et al., 2016</v>
@@ -9479,7 +9479,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>'PRISMA checklist'!A16</f>
         <v xml:space="preserve">90. Middelkoop et al., 2016 </v>
@@ -9521,7 +9521,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>'PRISMA checklist'!A17</f>
         <v>96. Albillos et al., 2017</v>
@@ -9603,7 +9603,7 @@
       </c>
       <c r="O18" s="10"/>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f>'PRISMA checklist'!A19</f>
         <v>108. Cuijpers et al., 2017</v>
@@ -9675,7 +9675,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f>'PRISMA checklist'!A21</f>
         <v>120. Goey et al., 2017</v>
@@ -9717,7 +9717,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f>'PRISMA checklist'!A22</f>
         <v>126. Jolly et al., 2017</v>
@@ -9759,7 +9759,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f>'PRISMA checklist'!A23</f>
         <v>132. Lambertini et al., 2017</v>
@@ -9801,7 +9801,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f>'PRISMA checklist'!A24</f>
         <v>138. Maund et al., 2017</v>
@@ -9843,7 +9843,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f>'PRISMA checklist'!A25</f>
         <v>144. Palmerini et al., 2017</v>
@@ -9885,7 +9885,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f>'PRISMA checklist'!A26</f>
         <v>150. Powell et al., 2017</v>
@@ -9924,7 +9924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f>'PRISMA checklist'!A27</f>
         <v>156. Runhaar et al., 2017</v>
@@ -9966,7 +9966,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f>'PRISMA checklist'!A28</f>
         <v>163. van Vliet et al., 2017</v>
@@ -10008,7 +10008,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f>'PRISMA checklist'!A29</f>
         <v>168. Ali et al., 2018</v>
@@ -10050,7 +10050,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="str">
         <f>'PRISMA checklist'!A30</f>
         <v>174. Bornstein et al., 2018</v>
@@ -10092,7 +10092,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="str">
         <f>'PRISMA checklist'!A31</f>
         <v>182. De vries et al., 2018</v>
@@ -10134,7 +10134,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f>'PRISMA checklist'!A32</f>
         <v>186. Hacke et al., 2018</v>
@@ -10174,7 +10174,7 @@
       </c>
       <c r="O32" s="10"/>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f>'PRISMA checklist'!A33</f>
         <v>192. Kalter et al., 2018</v>
@@ -10216,7 +10216,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f>'PRISMA checklist'!A34</f>
         <v>198. Lee et al., 2018</v>
@@ -10258,7 +10258,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f>'PRISMA checklist'!A35</f>
         <v>204. Palmeirim et al., 2018</v>
@@ -10342,7 +10342,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f>'PRISMA checklist'!A37</f>
         <v>216. Spertus et al., 2018</v>
@@ -10426,7 +10426,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f>'PRISMA checklist'!A39</f>
         <v>228. Neonatal Vitamin A Supplementation Evidence group., 2019</v>
@@ -10468,7 +10468,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f>'PRISMA checklist'!A40</f>
         <v>234. Bernard et al., 2019</v>
@@ -10507,7 +10507,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f>'PRISMA checklist'!A41</f>
         <v>241. Chalmers et al., 2019</v>
@@ -10546,7 +10546,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f>'PRISMA checklist'!A42</f>
         <v>246. Fielding et al., 2019</v>
@@ -10624,7 +10624,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f>'PRISMA checklist'!A44</f>
         <v>258. Meershoek et al., 2019</v>
@@ -10663,7 +10663,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f>'PRISMA checklist'!A45</f>
         <v>264. Rosenfield et al., 2019</v>
@@ -10702,7 +10702,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f>'PRISMA checklist'!A46</f>
         <v>270. Shaffer et al., 2019</v>
@@ -10741,7 +10741,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f>'PRISMA checklist'!A47</f>
         <v>276. Wang et al., 2019</v>
